--- a/Combinações Completas Excel.xlsx
+++ b/Combinações Completas Excel.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Tipo de Estrutura</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Intervalo de Anos</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Estrutura</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -558,12 +558,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -578,12 +578,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -618,12 +618,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -658,12 +658,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -712,18 +712,18 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -738,12 +738,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -758,12 +758,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -778,12 +778,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -792,18 +792,18 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -818,12 +818,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -832,18 +832,18 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -852,18 +852,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -878,12 +878,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -918,12 +918,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -938,12 +938,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -978,12 +978,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -998,12 +998,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1018,12 +1018,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1032,18 +1032,18 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1058,12 +1058,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1072,18 +1072,18 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1098,12 +1098,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1138,12 +1138,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1158,12 +1158,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1178,12 +1178,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1198,12 +1198,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1218,12 +1218,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1258,12 +1258,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1298,12 +1298,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1318,12 +1318,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1338,12 +1338,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1358,12 +1358,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1398,12 +1398,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Alvenaria Alargada</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1418,12 +1418,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1432,18 +1432,18 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1458,12 +1458,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1478,12 +1478,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1498,12 +1498,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1512,18 +1512,18 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1538,12 +1538,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1552,18 +1552,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1572,18 +1572,18 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1638,12 +1638,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1658,12 +1658,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1678,12 +1678,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1698,12 +1698,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1738,12 +1738,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1752,18 +1752,18 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1772,18 +1772,18 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1792,18 +1792,18 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1812,18 +1812,18 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1838,12 +1838,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1858,12 +1858,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1878,12 +1878,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1898,12 +1898,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1938,12 +1938,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1958,12 +1958,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1978,12 +1978,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1992,18 +1992,18 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2018,12 +2018,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2038,12 +2038,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2052,18 +2052,18 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2098,12 +2098,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2118,12 +2118,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2138,12 +2138,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2158,12 +2158,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2178,12 +2178,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2198,12 +2198,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2252,18 +2252,18 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2278,12 +2278,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2292,18 +2292,18 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2318,12 +2318,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2338,12 +2338,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2358,12 +2358,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco (simples ou múltiplos)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2418,12 +2418,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2432,18 +2432,18 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2452,18 +2452,18 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2478,12 +2478,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2498,12 +2498,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2518,12 +2518,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2532,18 +2532,18 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2552,18 +2552,18 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2578,12 +2578,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2592,18 +2592,18 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2618,12 +2618,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2638,12 +2638,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2658,12 +2658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2678,12 +2678,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2698,12 +2698,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2738,12 +2738,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2778,12 +2778,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2798,12 +2798,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2818,12 +2818,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2838,12 +2838,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2858,12 +2858,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2872,18 +2872,18 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2898,12 +2898,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2912,18 +2912,18 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2932,18 +2932,18 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2958,12 +2958,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2978,12 +2978,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2998,12 +2998,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3012,18 +3012,18 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3032,18 +3032,18 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3052,18 +3052,18 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3098,12 +3098,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3118,12 +3118,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3158,12 +3158,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3178,12 +3178,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3198,12 +3198,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3218,12 +3218,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3238,12 +3238,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3252,18 +3252,18 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3278,12 +3278,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3298,12 +3298,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3318,12 +3318,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Antes de 1960</t>
+          <t>Arco Pré-Fabricado</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3338,12 +3338,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3358,12 +3358,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3378,12 +3378,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3398,12 +3398,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3432,18 +3432,18 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3458,12 +3458,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3478,12 +3478,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3498,12 +3498,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3538,12 +3538,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3558,12 +3558,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3578,12 +3578,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3598,12 +3598,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3638,12 +3638,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3658,12 +3658,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3672,18 +3672,18 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3692,18 +3692,18 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3712,18 +3712,18 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3732,18 +3732,18 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3758,12 +3758,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3778,12 +3778,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3798,12 +3798,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3818,12 +3818,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3832,18 +3832,18 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3852,18 +3852,18 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3878,12 +3878,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3918,12 +3918,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3938,12 +3938,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3958,12 +3958,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3978,12 +3978,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3998,12 +3998,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4018,12 +4018,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4038,12 +4038,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4058,12 +4058,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4078,12 +4078,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4098,12 +4098,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4118,12 +4118,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4138,12 +4138,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4158,12 +4158,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4178,12 +4178,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4198,12 +4198,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4218,12 +4218,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4238,12 +4238,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4258,12 +4258,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Estrutura Tubular tipo "ARMCO"</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4298,12 +4298,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4318,12 +4318,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4338,12 +4338,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4358,12 +4358,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4378,12 +4378,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4392,18 +4392,18 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4418,12 +4418,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4438,12 +4438,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4452,18 +4452,18 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4478,12 +4478,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4498,12 +4498,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4518,12 +4518,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4538,12 +4538,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4558,12 +4558,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4578,12 +4578,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4598,12 +4598,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4618,12 +4618,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4632,18 +4632,18 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4692,18 +4692,18 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4718,12 +4718,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4738,12 +4738,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4758,12 +4758,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4778,12 +4778,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4798,12 +4798,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4818,12 +4818,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4838,12 +4838,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4858,12 +4858,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4872,18 +4872,18 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4898,12 +4898,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4912,18 +4912,18 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4932,18 +4932,18 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4952,18 +4952,18 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4978,12 +4978,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4998,12 +4998,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5018,12 +5018,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5058,12 +5058,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5078,12 +5078,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5098,12 +5098,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5118,12 +5118,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5138,12 +5138,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5158,12 +5158,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5172,18 +5172,18 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5198,12 +5198,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5218,12 +5218,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5238,12 +5238,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Misto de Soluções</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5258,12 +5258,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5278,12 +5278,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5298,12 +5298,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5318,12 +5318,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5338,12 +5338,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5358,12 +5358,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5378,12 +5378,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5398,12 +5398,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5412,18 +5412,18 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5432,18 +5432,18 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5458,12 +5458,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5478,12 +5478,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5498,12 +5498,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5512,18 +5512,18 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5538,12 +5538,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5558,12 +5558,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5578,12 +5578,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5598,12 +5598,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5618,12 +5618,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5638,12 +5638,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5658,12 +5658,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5678,12 +5678,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5698,12 +5698,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5718,12 +5718,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5738,12 +5738,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5752,18 +5752,18 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5778,12 +5778,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5818,12 +5818,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5838,12 +5838,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5858,12 +5858,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5878,12 +5878,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5892,18 +5892,18 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5912,18 +5912,18 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5958,12 +5958,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5978,12 +5978,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5998,12 +5998,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6018,12 +6018,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6038,12 +6038,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6058,12 +6058,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6078,12 +6078,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6098,12 +6098,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6118,12 +6118,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6132,18 +6132,18 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6158,12 +6158,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6178,12 +6178,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6198,12 +6198,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1960-1983</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6218,12 +6218,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6238,12 +6238,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6258,12 +6258,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6278,12 +6278,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6298,12 +6298,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6312,18 +6312,18 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6338,12 +6338,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6352,18 +6352,18 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6372,18 +6372,18 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6398,12 +6398,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6418,12 +6418,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6438,12 +6438,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6458,12 +6458,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -6478,12 +6478,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -6498,12 +6498,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6518,12 +6518,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6538,12 +6538,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6552,18 +6552,18 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6578,12 +6578,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6598,12 +6598,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -6612,18 +6612,18 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6632,18 +6632,18 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6658,12 +6658,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6678,12 +6678,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -6698,12 +6698,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -6712,18 +6712,18 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6738,12 +6738,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6758,12 +6758,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6778,12 +6778,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6798,12 +6798,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6818,12 +6818,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6838,12 +6838,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6852,18 +6852,18 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>139</v>
+        <v>838</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -6872,18 +6872,18 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -6898,12 +6898,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6918,12 +6918,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6938,12 +6938,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6952,18 +6952,18 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6972,18 +6972,18 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6998,12 +6998,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7018,12 +7018,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7038,12 +7038,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7058,12 +7058,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7078,12 +7078,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7092,18 +7092,18 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7112,18 +7112,18 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7138,12 +7138,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7158,12 +7158,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Pórtico</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7178,12 +7178,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7218,12 +7218,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7238,12 +7238,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7258,12 +7258,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7272,18 +7272,18 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7298,12 +7298,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7312,18 +7312,18 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7338,12 +7338,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7358,12 +7358,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7378,12 +7378,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7398,12 +7398,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7418,12 +7418,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7438,12 +7438,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -7458,12 +7458,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -7478,12 +7478,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7498,12 +7498,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7518,12 +7518,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7538,12 +7538,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7558,12 +7558,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7572,18 +7572,18 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -7598,12 +7598,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7618,12 +7618,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -7638,12 +7638,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7658,12 +7658,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7672,18 +7672,18 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7698,12 +7698,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7718,12 +7718,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7738,12 +7738,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7758,12 +7758,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7778,12 +7778,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -7798,12 +7798,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7812,18 +7812,18 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>838</v>
+        <v>69</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7832,18 +7832,18 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7858,12 +7858,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7878,12 +7878,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7898,12 +7898,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7918,12 +7918,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7938,12 +7938,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -7958,12 +7958,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7978,12 +7978,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7998,12 +7998,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8018,12 +8018,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8038,12 +8038,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8052,18 +8052,18 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -8078,12 +8078,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8098,12 +8098,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8118,12 +8118,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Quadro</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8138,12 +8138,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -8152,18 +8152,18 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -8178,12 +8178,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -8192,18 +8192,18 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -8212,18 +8212,18 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -8238,12 +8238,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8258,12 +8258,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8278,12 +8278,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -8292,18 +8292,18 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8312,18 +8312,18 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -8338,12 +8338,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -8352,18 +8352,18 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -8378,12 +8378,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -8398,12 +8398,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -8418,12 +8418,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -8438,12 +8438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8478,12 +8478,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -8498,12 +8498,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -8518,12 +8518,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -8532,18 +8532,18 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -8552,18 +8552,18 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -8578,12 +8578,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8598,12 +8598,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8618,12 +8618,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -8632,18 +8632,18 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -8658,12 +8658,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -8678,12 +8678,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -8698,12 +8698,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -8712,18 +8712,18 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8738,12 +8738,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -8758,12 +8758,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8772,18 +8772,18 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>1133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8792,18 +8792,18 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>2757</v>
+        <v>180</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -8818,12 +8818,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -8832,18 +8832,18 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8852,18 +8852,18 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -8878,12 +8878,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -8898,12 +8898,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8918,12 +8918,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8938,12 +8938,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -8958,12 +8958,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -8978,12 +8978,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -8998,12 +8998,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9012,18 +9012,18 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -9032,18 +9032,18 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9058,12 +9058,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9078,12 +9078,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>Tabuleiro simples/apoiado</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -9092,18 +9092,18 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9118,12 +9118,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -9138,12 +9138,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -9158,12 +9158,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9178,12 +9178,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -9198,12 +9198,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -9218,12 +9218,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -9238,12 +9238,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9258,12 +9258,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9278,12 +9278,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9298,12 +9298,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9318,12 +9318,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Alvenaria Alargada</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -9338,12 +9338,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9352,18 +9352,18 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9378,12 +9378,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -9398,12 +9398,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9418,12 +9418,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -9438,12 +9438,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -9452,18 +9452,18 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -9478,12 +9478,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -9492,18 +9492,18 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -9518,12 +9518,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -9538,12 +9538,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -9558,12 +9558,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Arco (simples ou múltiplos)</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -9578,12 +9578,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -9598,12 +9598,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -9618,12 +9618,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -9638,12 +9638,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -9658,12 +9658,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -9678,12 +9678,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -9698,12 +9698,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -9718,12 +9718,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -9738,12 +9738,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -9758,12 +9758,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -9778,12 +9778,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -9798,12 +9798,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Arco Pré-Fabricado</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -9818,12 +9818,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -9838,12 +9838,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -9858,12 +9858,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -9878,12 +9878,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9898,12 +9898,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9918,12 +9918,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -9938,12 +9938,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9958,12 +9958,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -9998,12 +9998,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10018,12 +10018,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10038,12 +10038,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Tirantes</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Estrutura Tubular tipo "ARMCO"</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10058,12 +10058,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10072,18 +10072,18 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -10098,12 +10098,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -10112,18 +10112,18 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -10132,18 +10132,18 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -10158,12 +10158,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -10178,12 +10178,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -10198,12 +10198,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10212,18 +10212,18 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -10232,18 +10232,18 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -10252,18 +10252,18 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -10278,12 +10278,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Misto de Soluções</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -10298,12 +10298,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -10312,18 +10312,18 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -10338,12 +10338,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -10358,12 +10358,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -10378,12 +10378,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -10398,12 +10398,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -10418,12 +10418,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -10438,12 +10438,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -10452,18 +10452,18 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -10472,18 +10472,18 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -10498,12 +10498,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10518,12 +10518,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -10538,12 +10538,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -10552,18 +10552,18 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -10578,12 +10578,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -10598,12 +10598,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -10618,12 +10618,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -10632,18 +10632,18 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -10658,12 +10658,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -10678,12 +10678,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -10692,18 +10692,18 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>28</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -10712,18 +10712,18 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>8</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -10738,12 +10738,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -10752,18 +10752,18 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Pórtico</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -10772,18 +10772,18 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10792,18 +10792,18 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -10818,12 +10818,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -10838,12 +10838,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -10858,12 +10858,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -10878,12 +10878,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -10898,12 +10898,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -10918,12 +10918,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10932,18 +10932,18 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -10952,18 +10952,18 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -10978,12 +10978,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -10998,12 +10998,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vãos Multiplos</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Quadro</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -11012,18 +11012,18 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -11038,12 +11038,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -11058,12 +11058,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -11078,12 +11078,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -11098,12 +11098,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -11118,12 +11118,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -11138,12 +11138,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -11158,12 +11158,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -11178,12 +11178,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -11192,18 +11192,18 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -11218,12 +11218,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -11238,12 +11238,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tabuleiro simples/apoiado</t>
+          <t>Antes de 1960</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -11252,18 +11252,18 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -11278,12 +11278,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -11298,12 +11298,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -11318,12 +11318,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -11338,12 +11338,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -11358,12 +11358,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -11378,12 +11378,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -11398,12 +11398,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -11412,18 +11412,18 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -11438,12 +11438,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -11458,12 +11458,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -11478,12 +11478,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tirantes</t>
+          <t>1960-1983</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -11498,12 +11498,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -11512,18 +11512,18 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -11538,12 +11538,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -11558,12 +11558,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -11578,12 +11578,12 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -11598,12 +11598,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -11618,12 +11618,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -11638,12 +11638,12 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -11652,18 +11652,18 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -11672,18 +11672,18 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -11698,12 +11698,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -11718,12 +11718,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Vãos Multiplos</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -11732,18 +11732,18 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -11758,12 +11758,12 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -11778,12 +11778,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -11798,12 +11798,12 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -11818,12 +11818,12 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -11838,12 +11838,12 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -11858,12 +11858,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -11878,12 +11878,12 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -11898,12 +11898,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -11918,12 +11918,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -11938,12 +11938,12 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -11958,12 +11958,12 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Depois de 2010</t>
+          <t>Vigas Gerber</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Vigas Gerber</t>
+          <t>Depois de 2010</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
